--- a/biology/Zoologie/Idiops/Idiops.xlsx
+++ b/biology/Zoologie/Idiops/Idiops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idiops est un genre d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idiops est un genre d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Amérique du Sud, en Asie et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Amérique du Sud, en Asie et aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 16/01/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 24.5, 16/01/2024) :
 Idiops angusticeps (Pocock, 1900)
 Idiops argus Simon, 1889
 Idiops arnoldi Hewitt, 1914
@@ -668,12 +684,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Perty en 1833. Il est placé dans les Idiopidae par Raven en 1985[2].
-Acanthodon[3] a été placé en synonymie par O. Pickard-Cambridge en 1870[4].
-Juambeltzia[5] a été placé en synonymie par Schiapelli et Gerschman en 1971[6].
-Dendricon[7] et Pseudidiops[8] ont été placés en synonymie par Raven en 1985[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Perty en 1833. Il est placé dans les Idiopidae par Raven en 1985.
+Acanthodon a été placé en synonymie par O. Pickard-Cambridge en 1870.
+Juambeltzia a été placé en synonymie par Schiapelli et Gerschman en 1971.
+Dendricon et Pseudidiops ont été placés en synonymie par Raven en 1985.
 </t>
         </is>
       </c>
@@ -702,7 +720,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Perty, 1833 : « Arachnides Brasilienses. » Delectus animalium articulatorum quae in itinere per Braziliam ann. 1817 et 1820 colligerunt. Monachii, p. 191-209.</t>
         </is>
